--- a/biology/Zoologie/Agilodocodon/Agilodocodon.xlsx
+++ b/biology/Zoologie/Agilodocodon/Agilodocodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agilodocodon scansorius
 Agilodocodon est un genre fossile de Mammaliaformes de l'ordre des docodontes, qui vivait dans le Nord de la Chine durant le Jurassique. Il a la taille d'une musaraigne et présente des caractères arboricoles.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un fossile de cet animal a été découvert dans les bancs de Daohugou de la formation géologique de Tiaojishan, datée du Jurassique moyen à supérieur[1],[2], dans l'est de la région autonome de Mongolie-Intérieure, en Chine. Il fait partie du biote de Yanliao.
-Une seule espèce est rattachée au genre, Agilodocodon scansorius, décrite en 2015 par Qing-Jin Meng et al.[3]. Le nom de genre Agilodocodon fait une double référence à son appartenance aux docodontes et à son agilité. Le nom d'espèce scansorius dérive du participe passé scansius du verbe scando, « grimper », il indique son mode de vie arboricole[3].
-L'holotype et seul spécimen fossile d'Agilodocodon scansorius, référencé BMNH 001138, a été décrit en même temps qu'un autre petit Mammaliaformes, un animal fouisseur nommé Docofossor brachydactylus[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un fossile de cet animal a été découvert dans les bancs de Daohugou de la formation géologique de Tiaojishan, datée du Jurassique moyen à supérieur dans l'est de la région autonome de Mongolie-Intérieure, en Chine. Il fait partie du biote de Yanliao.
+Une seule espèce est rattachée au genre, Agilodocodon scansorius, décrite en 2015 par Qing-Jin Meng et al.. Le nom de genre Agilodocodon fait une double référence à son appartenance aux docodontes et à son agilité. Le nom d'espèce scansorius dérive du participe passé scansius du verbe scando, « grimper », il indique son mode de vie arboricole.
+L'holotype et seul spécimen fossile d'Agilodocodon scansorius, référencé BMNH 001138, a été décrit en même temps qu'un autre petit Mammaliaformes, un animal fouisseur nommé Docofossor brachydactylus.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agilodocodon mesure environ 13 cm de long de la tête jusqu'au bout de la queue. Sa masse est estimée à 27 grammes[5]. Il ressemble à un écureuil actuel, avec un museau allongé et courbé, des griffes cornées et des articulations souples et flexibles de la cheville et du poignet, typiques des mammifères arboricoles modernes[3],[5]. Ses dents de devant sont en forme de pelle, ce qui indique qu'Agilodocodon pouvait ronger l'écorce des arbres pour en consommer la gomme ou la sève, qui faisaient probablement partie de son régime omnivore[5].
-Agilodocodon est considéré comme l'un des plus anciens animaux arboricoles connus[3],[6],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agilodocodon mesure environ 13 cm de long de la tête jusqu'au bout de la queue. Sa masse est estimée à 27 grammes. Il ressemble à un écureuil actuel, avec un museau allongé et courbé, des griffes cornées et des articulations souples et flexibles de la cheville et du poignet, typiques des mammifères arboricoles modernes,. Ses dents de devant sont en forme de pelle, ce qui indique qu'Agilodocodon pouvait ronger l'écorce des arbres pour en consommer la gomme ou la sève, qui faisaient probablement partie de son régime omnivore.
+Agilodocodon est considéré comme l'un des plus anciens animaux arboricoles connus.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme ci-dessous place Agilodocodon parmi les docodontes[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme ci-dessous place Agilodocodon parmi les docodontes :
 </t>
         </is>
       </c>
